--- a/media/Levels/Stage07/UpWallMap.xlsx
+++ b/media/Levels/Stage07/UpWallMap.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erima\desktop\授業で手に入れたItems\2年後期製作\newwww\media\Levels\Stage07\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oyush\Desktop\勉強\後期製作\Gチーム\media\Levels\Stage07\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477B6231-08C7-4257-AB49-A753A5DD3027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F0A7E94-D55A-49B7-94C3-FD9A69504BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7308" yWindow="1008" windowWidth="17280" windowHeight="8880" xr2:uid="{75A79129-5593-4F02-8575-F4D7F19541D0}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{75A79129-5593-4F02-8575-F4D7F19541D0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="UpWallMap" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -416,8 +416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{159AE2E0-0F10-440F-AB34-6051D71D5293}">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -536,28 +536,28 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3">
         <v>1</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -806,13 +806,13 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -980,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12">
         <v>0</v>
